--- a/proton_qT/expdata/10772.xlsx
+++ b/proton_qT/expdata/10772.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6651426-8936-EC4E-94A7-E6846418C1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A6CFA5-F653-0747-9C56-DA450443637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{E748A6B3-C705-8646-AAB9-41680F0509DB}"/>
+    <workbookView xWindow="4680" yWindow="3880" windowWidth="28040" windowHeight="17440" xr2:uid="{E748A6B3-C705-8646-AAB9-41680F0509DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="22">
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>M_min</t>
-  </si>
-  <si>
-    <t>M_max</t>
-  </si>
-  <si>
-    <t>x_min</t>
-  </si>
-  <si>
-    <t>x_max</t>
   </si>
   <si>
     <t>pT</t>
@@ -85,6 +73,24 @@
   </si>
   <si>
     <t>syst_c</t>
+  </si>
+  <si>
+    <t>Qmin</t>
+  </si>
+  <si>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>xFmin</t>
+  </si>
+  <si>
+    <t>xFmax</t>
+  </si>
+  <si>
+    <t>pTmin</t>
+  </si>
+  <si>
+    <t>pTmax</t>
   </si>
 </sst>
 </file>
@@ -442,65 +448,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77567996-9DB4-934B-A762-085C14C79E9B}">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>800</v>
       </c>
@@ -517,39 +529,45 @@
         <v>0.3</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.25</v>
+      </c>
+      <c r="H2">
         <v>0.125</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2">
         <v>6.75</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0.30499999999999999</v>
       </c>
-      <c r="L2">
-        <f>0.1*J2</f>
+      <c r="N2">
+        <f>0.1*L2</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="M2">
-        <f>0.1*J2</f>
+      <c r="O2">
+        <f>0.1*L2</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>800</v>
       </c>
@@ -566,39 +584,45 @@
         <v>0.3</v>
       </c>
       <c r="F3">
+        <v>0.25</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
         <v>0.375</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3">
         <v>5.59</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.156</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L13" si="0">0.1*J3</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N13" si="0">0.1*L3</f>
         <v>0.55900000000000005</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M66" si="1">0.1*J3</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="1">0.1*L3</f>
         <v>0.55900000000000005</v>
       </c>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>800</v>
       </c>
@@ -615,39 +639,45 @@
         <v>0.3</v>
       </c>
       <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.75</v>
+      </c>
+      <c r="H4">
         <v>0.625</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4">
         <v>4.84</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.122</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <f t="shared" si="0"/>
         <v>0.48399999999999999</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <f t="shared" si="1"/>
         <v>0.48399999999999999</v>
       </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>800</v>
       </c>
@@ -664,39 +694,45 @@
         <v>0.3</v>
       </c>
       <c r="F5">
+        <v>0.75</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>0.875</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5">
         <v>3.5</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <f t="shared" si="0"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <f t="shared" si="1"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="N5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>800</v>
       </c>
@@ -713,39 +749,45 @@
         <v>0.3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.25</v>
+      </c>
+      <c r="H6">
         <v>1.125</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
       <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6">
         <v>2.56</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>0.25600000000000001</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <f t="shared" si="1"/>
         <v>0.25600000000000001</v>
       </c>
-      <c r="N6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>800</v>
       </c>
@@ -762,39 +804,45 @@
         <v>0.3</v>
       </c>
       <c r="F7">
+        <v>1.25</v>
+      </c>
+      <c r="G7">
+        <v>1.5</v>
+      </c>
+      <c r="H7">
         <v>1.375</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7">
         <v>1.78</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>0.17800000000000002</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <f t="shared" si="1"/>
         <v>0.17800000000000002</v>
       </c>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>800</v>
       </c>
@@ -811,39 +859,45 @@
         <v>0.3</v>
       </c>
       <c r="F8">
+        <v>1.5</v>
+      </c>
+      <c r="G8">
+        <v>1.75</v>
+      </c>
+      <c r="H8">
         <v>1.625</v>
       </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
       <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>0.11200000000000002</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <f t="shared" si="1"/>
         <v>0.11200000000000002</v>
       </c>
-      <c r="N8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>800</v>
       </c>
@@ -860,39 +914,45 @@
         <v>0.3</v>
       </c>
       <c r="F9">
+        <v>1.75</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
         <v>1.875</v>
       </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
       <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9">
         <v>0.81699999999999995</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <f t="shared" si="1"/>
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="N9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>800</v>
       </c>
@@ -909,39 +969,45 @@
         <v>0.3</v>
       </c>
       <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2.25</v>
+      </c>
+      <c r="H10">
         <v>2.125</v>
       </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
       <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10">
         <v>0.25900000000000001</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>2.98E-2</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>2.5900000000000003E-2</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <f t="shared" si="1"/>
         <v>2.5900000000000003E-2</v>
       </c>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>800</v>
       </c>
@@ -958,39 +1024,45 @@
         <v>0.3</v>
       </c>
       <c r="F11">
+        <v>2.25</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11">
         <v>2.375</v>
       </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
       <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11">
         <v>0.34599999999999997</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <f t="shared" si="1"/>
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="N11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>800</v>
       </c>
@@ -1007,39 +1079,45 @@
         <v>0.3</v>
       </c>
       <c r="F12">
+        <v>2.5</v>
+      </c>
+      <c r="G12">
+        <v>2.75</v>
+      </c>
+      <c r="H12">
         <v>2.625</v>
       </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
       <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12">
         <v>0.14699999999999999</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>1.47E-2</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <f t="shared" si="1"/>
         <v>1.47E-2</v>
       </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>800</v>
       </c>
@@ -1056,39 +1134,45 @@
         <v>0.3</v>
       </c>
       <c r="F13">
+        <v>2.75</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
         <v>2.875</v>
       </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
       <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>1.54E-2</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <f t="shared" si="0"/>
         <v>4.5700000000000003E-3</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <f t="shared" si="1"/>
         <v>4.5700000000000003E-3</v>
       </c>
-      <c r="N13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>800</v>
       </c>
@@ -1105,39 +1189,45 @@
         <v>0.3</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.25</v>
+      </c>
+      <c r="H14">
         <v>0.125</v>
       </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
       <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14">
         <v>2.87</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>0.153</v>
       </c>
-      <c r="L14">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="N14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="1"/>
         <v>0.28700000000000003</v>
       </c>
-      <c r="N14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>800</v>
       </c>
@@ -1154,39 +1244,45 @@
         <v>0.3</v>
       </c>
       <c r="F15">
+        <v>0.25</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
         <v>0.375</v>
       </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
       <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15">
         <v>2.2799999999999998</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="L15">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="N15">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="1"/>
         <v>0.22799999999999998</v>
       </c>
-      <c r="N15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>800</v>
       </c>
@@ -1203,39 +1299,45 @@
         <v>0.3</v>
       </c>
       <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.75</v>
+      </c>
+      <c r="H16">
         <v>0.625</v>
       </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
       <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16">
         <v>2.08</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>6.25E-2</v>
       </c>
-      <c r="L16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="N16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
-      <c r="N16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>800</v>
       </c>
@@ -1252,39 +1354,45 @@
         <v>0.3</v>
       </c>
       <c r="F17">
+        <v>0.75</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>0.875</v>
       </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
       <c r="I17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17">
         <v>1.35</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="L17">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="N17">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="1"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="N17" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>800</v>
       </c>
@@ -1301,39 +1409,45 @@
         <v>0.3</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.25</v>
+      </c>
+      <c r="H18">
         <v>1.125</v>
       </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
       <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18">
         <v>1.05</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>3.56E-2</v>
       </c>
-      <c r="L18">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="N18">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="1"/>
         <v>0.10500000000000001</v>
       </c>
-      <c r="N18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>800</v>
       </c>
@@ -1350,39 +1464,45 @@
         <v>0.3</v>
       </c>
       <c r="F19">
+        <v>1.25</v>
+      </c>
+      <c r="G19">
+        <v>1.5</v>
+      </c>
+      <c r="H19">
         <v>1.375</v>
       </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
       <c r="I19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19">
         <v>0.66900000000000004</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>2.75E-2</v>
       </c>
-      <c r="L19">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="N19">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="1"/>
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="N19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>800</v>
       </c>
@@ -1399,39 +1519,45 @@
         <v>0.3</v>
       </c>
       <c r="F20">
+        <v>1.5</v>
+      </c>
+      <c r="G20">
+        <v>1.75</v>
+      </c>
+      <c r="H20">
         <v>1.625</v>
       </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
       <c r="I20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20">
         <v>0.39700000000000002</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="L20">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="N20">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="1"/>
         <v>3.9700000000000006E-2</v>
       </c>
-      <c r="N20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>800</v>
       </c>
@@ -1448,39 +1574,45 @@
         <v>0.3</v>
       </c>
       <c r="F21">
+        <v>1.75</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
         <v>1.875</v>
       </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
       <c r="I21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21">
         <v>0.26200000000000001</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>1.72E-2</v>
       </c>
-      <c r="L21">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="N21">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="1"/>
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="N21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>800</v>
       </c>
@@ -1497,39 +1629,45 @@
         <v>0.3</v>
       </c>
       <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2.25</v>
+      </c>
+      <c r="H22">
         <v>2.125</v>
       </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
       <c r="I22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22">
         <v>0.21299999999999999</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="L22">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="N22">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="1"/>
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="N22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>800</v>
       </c>
@@ -1546,39 +1684,45 @@
         <v>0.3</v>
       </c>
       <c r="F23">
+        <v>2.25</v>
+      </c>
+      <c r="G23">
+        <v>2.5</v>
+      </c>
+      <c r="H23">
         <v>2.375</v>
       </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
       <c r="I23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23">
         <v>0.11700000000000001</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L23">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="N23">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="1"/>
         <v>1.1700000000000002E-2</v>
       </c>
-      <c r="N23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>800</v>
       </c>
@@ -1595,39 +1739,45 @@
         <v>0.3</v>
       </c>
       <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>2.75</v>
+      </c>
+      <c r="H24">
         <v>2.625</v>
       </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
       <c r="I24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="L24">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="N24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="1"/>
         <v>9.7900000000000001E-3</v>
       </c>
-      <c r="N24" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>800</v>
       </c>
@@ -1644,39 +1794,45 @@
         <v>0.3</v>
       </c>
       <c r="F25">
+        <v>2.75</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
         <v>2.875</v>
       </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
       <c r="I25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>9.0799999999999995E-3</v>
       </c>
-      <c r="L25">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="N25">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="1"/>
         <v>3.7600000000000003E-3</v>
       </c>
-      <c r="N25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>800</v>
       </c>
@@ -1693,39 +1849,45 @@
         <v>0.3</v>
       </c>
       <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3.25</v>
+      </c>
+      <c r="H26">
         <v>3.125</v>
       </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
       <c r="I26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26">
         <v>2.29E-2</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>7.8899999999999994E-3</v>
       </c>
-      <c r="L26">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="N26">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="1"/>
         <v>2.2899999999999999E-3</v>
       </c>
-      <c r="N26" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>800</v>
       </c>
@@ -1742,39 +1904,45 @@
         <v>0.3</v>
       </c>
       <c r="F27">
+        <v>3.25</v>
+      </c>
+      <c r="G27">
+        <v>3.5</v>
+      </c>
+      <c r="H27">
         <v>3.375</v>
       </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
       <c r="I27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="L27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="N27">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="1"/>
         <v>3.4500000000000004E-3</v>
       </c>
-      <c r="N27" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>800</v>
       </c>
@@ -1791,39 +1959,45 @@
         <v>0.3</v>
       </c>
       <c r="F28">
+        <v>3.5</v>
+      </c>
+      <c r="G28">
+        <v>3.75</v>
+      </c>
+      <c r="H28">
         <v>3.625</v>
       </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
       <c r="I28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28">
         <v>1.06E-2</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>8.8599999999999998E-3</v>
       </c>
-      <c r="L28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="N28">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="1"/>
         <v>1.06E-3</v>
       </c>
-      <c r="N28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>800</v>
       </c>
@@ -1840,39 +2014,45 @@
         <v>0.3</v>
       </c>
       <c r="F29">
+        <v>3.75</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
         <v>3.875</v>
       </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
       <c r="I29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29">
         <v>5.0100000000000003E-4</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>4.3199999999999998E-4</v>
       </c>
-      <c r="L29">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="N29">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="1"/>
         <v>5.0100000000000005E-5</v>
       </c>
-      <c r="N29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>800</v>
       </c>
@@ -1889,39 +2069,45 @@
         <v>0.3</v>
       </c>
       <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.25</v>
+      </c>
+      <c r="H30">
         <v>0.125</v>
       </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
-      </c>
       <c r="I30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30">
         <v>1.68</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>0.12</v>
       </c>
-      <c r="L30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="N30">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="1"/>
         <v>0.16800000000000001</v>
       </c>
-      <c r="N30" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>800</v>
       </c>
@@ -1938,39 +2124,45 @@
         <v>0.3</v>
       </c>
       <c r="F31">
+        <v>0.25</v>
+      </c>
+      <c r="G31">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
         <v>0.375</v>
       </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
       <c r="I31" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="L31">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="N31">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="1"/>
         <v>0.11599999999999999</v>
       </c>
-      <c r="N31" t="s">
-        <v>14</v>
-      </c>
-      <c r="O31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>800</v>
       </c>
@@ -1987,39 +2179,45 @@
         <v>0.3</v>
       </c>
       <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.75</v>
+      </c>
+      <c r="H32">
         <v>0.625</v>
       </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
       <c r="I32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32">
         <v>0.97</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="L32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="N32">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="1"/>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="N32" t="s">
-        <v>14</v>
-      </c>
-      <c r="O32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>800</v>
       </c>
@@ -2036,39 +2234,45 @@
         <v>0.3</v>
       </c>
       <c r="F33">
+        <v>0.75</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>0.875</v>
       </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
-      </c>
       <c r="I33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33">
         <v>0.73</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="L33">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="N33">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="1"/>
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="N33" t="s">
-        <v>14</v>
-      </c>
-      <c r="O33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>800</v>
       </c>
@@ -2085,39 +2289,45 @@
         <v>0.3</v>
       </c>
       <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.25</v>
+      </c>
+      <c r="H34">
         <v>1.125</v>
       </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
       <c r="I34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34">
         <v>0.53400000000000003</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>2.24E-2</v>
       </c>
-      <c r="L34">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="N34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="1"/>
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="N34" t="s">
-        <v>14</v>
-      </c>
-      <c r="O34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>800</v>
       </c>
@@ -2134,39 +2344,45 @@
         <v>0.3</v>
       </c>
       <c r="F35">
+        <v>1.25</v>
+      </c>
+      <c r="G35">
+        <v>1.5</v>
+      </c>
+      <c r="H35">
         <v>1.375</v>
       </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
       <c r="I35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35">
         <v>0.35699999999999998</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>1.77E-2</v>
       </c>
-      <c r="L35">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="N35">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="1"/>
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="N35" t="s">
-        <v>14</v>
-      </c>
-      <c r="O35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>800</v>
       </c>
@@ -2183,39 +2399,45 @@
         <v>0.3</v>
       </c>
       <c r="F36">
+        <v>1.5</v>
+      </c>
+      <c r="G36">
+        <v>1.75</v>
+      </c>
+      <c r="H36">
         <v>1.625</v>
       </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
       <c r="I36" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36">
         <v>0.222</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>1.4E-2</v>
       </c>
-      <c r="L36">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="N36">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="1"/>
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="N36" t="s">
-        <v>14</v>
-      </c>
-      <c r="O36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>800</v>
       </c>
@@ -2232,39 +2454,45 @@
         <v>0.3</v>
       </c>
       <c r="F37">
+        <v>1.75</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
         <v>1.875</v>
       </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" t="s">
-        <v>15</v>
-      </c>
       <c r="I37" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37">
         <v>0.13</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>9.9699999999999997E-3</v>
       </c>
-      <c r="L37">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="N37">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="1"/>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="N37" t="s">
-        <v>14</v>
-      </c>
-      <c r="O37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>800</v>
       </c>
@@ -2281,39 +2509,45 @@
         <v>0.3</v>
       </c>
       <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2.25</v>
+      </c>
+      <c r="H38">
         <v>2.125</v>
       </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
       <c r="I38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>8.9300000000000004E-3</v>
       </c>
-      <c r="L38">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M38">
+      <c r="N38">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="1"/>
         <v>8.3899999999999999E-3</v>
       </c>
-      <c r="N38" t="s">
-        <v>14</v>
-      </c>
-      <c r="O38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>800</v>
       </c>
@@ -2330,39 +2564,45 @@
         <v>0.3</v>
       </c>
       <c r="F39">
+        <v>2.25</v>
+      </c>
+      <c r="G39">
+        <v>2.5</v>
+      </c>
+      <c r="H39">
         <v>2.375</v>
       </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
       <c r="I39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>7.0899999999999999E-3</v>
       </c>
-      <c r="L39">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M39">
+      <c r="N39">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="1"/>
         <v>4.9399999999999999E-3</v>
       </c>
-      <c r="N39" t="s">
-        <v>14</v>
-      </c>
-      <c r="O39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>800</v>
       </c>
@@ -2379,39 +2619,45 @@
         <v>0.3</v>
       </c>
       <c r="F40">
+        <v>2.5</v>
+      </c>
+      <c r="G40">
+        <v>2.75</v>
+      </c>
+      <c r="H40">
         <v>2.625</v>
       </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
       <c r="I40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>6.79E-3</v>
       </c>
-      <c r="L40">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M40">
+      <c r="N40">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="1"/>
         <v>3.4000000000000002E-3</v>
       </c>
-      <c r="N40" t="s">
-        <v>14</v>
-      </c>
-      <c r="O40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>800</v>
       </c>
@@ -2428,39 +2674,45 @@
         <v>0.3</v>
       </c>
       <c r="F41">
+        <v>2.75</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
         <v>2.875</v>
       </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" t="s">
-        <v>15</v>
-      </c>
       <c r="I41" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="L41">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M41">
+      <c r="N41">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="1"/>
         <v>2.9499999999999999E-3</v>
       </c>
-      <c r="N41" t="s">
-        <v>14</v>
-      </c>
-      <c r="O41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>800</v>
       </c>
@@ -2477,39 +2729,45 @@
         <v>0.3</v>
       </c>
       <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>3.25</v>
+      </c>
+      <c r="H42">
         <v>3.125</v>
       </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
       <c r="I42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42">
         <v>8.4399999999999996E-3</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="L42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="N42">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="1"/>
         <v>8.4400000000000002E-4</v>
       </c>
-      <c r="N42" t="s">
-        <v>14</v>
-      </c>
-      <c r="O42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>800</v>
       </c>
@@ -2526,39 +2784,45 @@
         <v>0.3</v>
       </c>
       <c r="F43">
+        <v>3.25</v>
+      </c>
+      <c r="G43">
+        <v>3.5</v>
+      </c>
+      <c r="H43">
         <v>3.375</v>
       </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" t="s">
-        <v>15</v>
-      </c>
       <c r="I43" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43">
         <v>5.7299999999999999E-3</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>3.7599999999999999E-3</v>
       </c>
-      <c r="L43">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M43">
+      <c r="N43">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="1"/>
         <v>5.7300000000000005E-4</v>
       </c>
-      <c r="N43" t="s">
-        <v>14</v>
-      </c>
-      <c r="O43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>800</v>
       </c>
@@ -2575,39 +2839,45 @@
         <v>0.3</v>
       </c>
       <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0.25</v>
+      </c>
+      <c r="H44">
         <v>0.125</v>
       </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
       <c r="I44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44">
         <v>0.755</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>7.5200000000000003E-2</v>
       </c>
-      <c r="L44">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M44">
+      <c r="N44">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="1"/>
         <v>7.5500000000000012E-2</v>
       </c>
-      <c r="N44" t="s">
-        <v>14</v>
-      </c>
-      <c r="O44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>800</v>
       </c>
@@ -2624,39 +2894,45 @@
         <v>0.3</v>
       </c>
       <c r="F45">
+        <v>0.25</v>
+      </c>
+      <c r="G45">
+        <v>0.5</v>
+      </c>
+      <c r="H45">
         <v>0.375</v>
       </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" t="s">
-        <v>15</v>
-      </c>
       <c r="I45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45">
         <v>0.63900000000000001</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="L45">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M45">
+      <c r="N45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="1"/>
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="N45" t="s">
-        <v>14</v>
-      </c>
-      <c r="O45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>800</v>
       </c>
@@ -2673,39 +2949,45 @@
         <v>0.3</v>
       </c>
       <c r="F46">
+        <v>0.5</v>
+      </c>
+      <c r="G46">
+        <v>0.75</v>
+      </c>
+      <c r="H46">
         <v>0.625</v>
       </c>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
-      </c>
       <c r="I46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46">
         <v>0.45300000000000001</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>2.29E-2</v>
       </c>
-      <c r="L46">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M46">
+      <c r="N46">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="1"/>
         <v>4.5300000000000007E-2</v>
       </c>
-      <c r="N46" t="s">
-        <v>14</v>
-      </c>
-      <c r="O46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>800</v>
       </c>
@@ -2722,39 +3004,45 @@
         <v>0.3</v>
       </c>
       <c r="F47">
+        <v>0.75</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
         <v>0.875</v>
       </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" t="s">
-        <v>15</v>
-      </c>
       <c r="I47" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47">
         <v>0.38700000000000001</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="L47">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M47">
+      <c r="N47">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="1"/>
         <v>3.8700000000000005E-2</v>
       </c>
-      <c r="N47" t="s">
-        <v>14</v>
-      </c>
-      <c r="O47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>800</v>
       </c>
@@ -2771,39 +3059,45 @@
         <v>0.3</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1.25</v>
+      </c>
+      <c r="H48">
         <v>1.125</v>
       </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" t="s">
-        <v>15</v>
-      </c>
       <c r="I48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48">
         <v>0.23899999999999999</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="L48">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M48">
+      <c r="N48">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="1"/>
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="N48" t="s">
-        <v>14</v>
-      </c>
-      <c r="O48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>800</v>
       </c>
@@ -2820,39 +3114,45 @@
         <v>0.3</v>
       </c>
       <c r="F49">
+        <v>1.25</v>
+      </c>
+      <c r="G49">
+        <v>1.5</v>
+      </c>
+      <c r="H49">
         <v>1.375</v>
       </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" t="s">
-        <v>15</v>
-      </c>
       <c r="I49" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49">
         <v>0.17199999999999999</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="L49">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M49">
+      <c r="N49">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="1"/>
         <v>1.72E-2</v>
       </c>
-      <c r="N49" t="s">
-        <v>14</v>
-      </c>
-      <c r="O49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>800</v>
       </c>
@@ -2869,39 +3169,45 @@
         <v>0.3</v>
       </c>
       <c r="F50">
+        <v>1.5</v>
+      </c>
+      <c r="G50">
+        <v>1.75</v>
+      </c>
+      <c r="H50">
         <v>1.625</v>
       </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" t="s">
-        <v>15</v>
-      </c>
       <c r="I50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50">
         <v>0.12</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>8.6700000000000006E-3</v>
       </c>
-      <c r="L50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M50">
+      <c r="N50">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="1"/>
         <v>1.2E-2</v>
       </c>
-      <c r="N50" t="s">
-        <v>14</v>
-      </c>
-      <c r="O50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>800</v>
       </c>
@@ -2918,39 +3224,45 @@
         <v>0.3</v>
       </c>
       <c r="F51">
+        <v>1.75</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
         <v>1.875</v>
       </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" t="s">
-        <v>15</v>
-      </c>
       <c r="I51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51">
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>7.0099999999999997E-3</v>
       </c>
-      <c r="L51">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M51">
+      <c r="N51">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="1"/>
         <v>7.4300000000000008E-3</v>
       </c>
-      <c r="N51" t="s">
-        <v>14</v>
-      </c>
-      <c r="O51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>800</v>
       </c>
@@ -2967,39 +3279,45 @@
         <v>0.3</v>
       </c>
       <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>2.25</v>
+      </c>
+      <c r="H52">
         <v>2.125</v>
       </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" t="s">
-        <v>15</v>
-      </c>
       <c r="I52" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>5.5500000000000002E-3</v>
       </c>
-      <c r="L52">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M52">
+      <c r="N52">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="1"/>
         <v>4.3400000000000001E-3</v>
       </c>
-      <c r="N52" t="s">
-        <v>14</v>
-      </c>
-      <c r="O52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>800</v>
       </c>
@@ -3016,39 +3334,45 @@
         <v>0.3</v>
       </c>
       <c r="F53">
+        <v>2.25</v>
+      </c>
+      <c r="G53">
+        <v>2.5</v>
+      </c>
+      <c r="H53">
         <v>2.375</v>
       </c>
-      <c r="G53" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" t="s">
-        <v>15</v>
-      </c>
       <c r="I53" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>3.4299999999999999E-3</v>
       </c>
-      <c r="L53">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M53">
+      <c r="N53">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="1"/>
         <v>1.99E-3</v>
       </c>
-      <c r="N53" t="s">
-        <v>14</v>
-      </c>
-      <c r="O53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>800</v>
       </c>
@@ -3065,39 +3389,45 @@
         <v>0.3</v>
       </c>
       <c r="F54">
+        <v>2.5</v>
+      </c>
+      <c r="G54">
+        <v>2.75</v>
+      </c>
+      <c r="H54">
         <v>2.625</v>
       </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" t="s">
-        <v>15</v>
-      </c>
       <c r="I54" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>2.49E-3</v>
       </c>
-      <c r="L54">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M54">
+      <c r="N54">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="1"/>
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="N54" t="s">
-        <v>14</v>
-      </c>
-      <c r="O54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>800</v>
       </c>
@@ -3114,39 +3444,45 @@
         <v>0.3</v>
       </c>
       <c r="F55">
+        <v>2.75</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
         <v>2.875</v>
       </c>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" t="s">
-        <v>15</v>
-      </c>
       <c r="I55" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55">
+        <v>14</v>
+      </c>
+      <c r="J55" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>2.49E-3</v>
       </c>
-      <c r="L55">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M55">
+      <c r="N55">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="1"/>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="N55" t="s">
-        <v>14</v>
-      </c>
-      <c r="O55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>800</v>
       </c>
@@ -3163,39 +3499,45 @@
         <v>0.3</v>
       </c>
       <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>3.25</v>
+      </c>
+      <c r="H56">
         <v>3.125</v>
       </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" t="s">
-        <v>15</v>
-      </c>
       <c r="I56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56">
         <v>3.2299999999999998E-3</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>2.48E-3</v>
       </c>
-      <c r="L56">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M56">
+      <c r="N56">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="1"/>
         <v>3.2299999999999999E-4</v>
       </c>
-      <c r="N56" t="s">
-        <v>14</v>
-      </c>
-      <c r="O56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>800</v>
       </c>
@@ -3212,39 +3554,45 @@
         <v>0.3</v>
       </c>
       <c r="F57">
+        <v>3.25</v>
+      </c>
+      <c r="G57">
+        <v>3.5</v>
+      </c>
+      <c r="H57">
         <v>3.375</v>
       </c>
-      <c r="G57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" t="s">
-        <v>15</v>
-      </c>
       <c r="I57" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57">
         <v>6.6600000000000001E-3</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>5.9699999999999996E-3</v>
       </c>
-      <c r="L57">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M57">
+      <c r="N57">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O57">
         <f t="shared" si="1"/>
         <v>6.6600000000000003E-4</v>
       </c>
-      <c r="N57" t="s">
-        <v>14</v>
-      </c>
-      <c r="O57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>800</v>
       </c>
@@ -3261,39 +3609,45 @@
         <v>0.3</v>
       </c>
       <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0.25</v>
+      </c>
+      <c r="H58">
         <v>0.125</v>
       </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
-      </c>
       <c r="I58" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="L58">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M58">
+      <c r="N58">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="1"/>
         <v>8.6800000000000002E-3</v>
       </c>
-      <c r="N58" t="s">
-        <v>14</v>
-      </c>
-      <c r="O58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>800</v>
       </c>
@@ -3310,39 +3664,45 @@
         <v>0.3</v>
       </c>
       <c r="F59">
+        <v>0.25</v>
+      </c>
+      <c r="G59">
+        <v>0.5</v>
+      </c>
+      <c r="H59">
         <v>0.375</v>
       </c>
-      <c r="G59" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" t="s">
-        <v>15</v>
-      </c>
       <c r="I59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="L59">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M59">
+      <c r="N59">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="1"/>
         <v>9.1599999999999997E-3</v>
       </c>
-      <c r="N59" t="s">
-        <v>14</v>
-      </c>
-      <c r="O59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>800</v>
       </c>
@@ -3359,39 +3719,45 @@
         <v>0.3</v>
       </c>
       <c r="F60">
+        <v>0.5</v>
+      </c>
+      <c r="G60">
+        <v>0.75</v>
+      </c>
+      <c r="H60">
         <v>0.625</v>
       </c>
-      <c r="G60" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
-      </c>
       <c r="I60" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60">
         <v>3.78E-2</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>7.6899999999999998E-3</v>
       </c>
-      <c r="L60">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M60">
+      <c r="N60">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="1"/>
         <v>3.7800000000000004E-3</v>
       </c>
-      <c r="N60" t="s">
-        <v>14</v>
-      </c>
-      <c r="O60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>800</v>
       </c>
@@ -3408,39 +3774,45 @@
         <v>0.3</v>
       </c>
       <c r="F61">
+        <v>0.75</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
         <v>0.875</v>
       </c>
-      <c r="G61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" t="s">
-        <v>15</v>
-      </c>
       <c r="I61" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61">
         <v>3.73E-2</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>6.4400000000000004E-3</v>
       </c>
-      <c r="L61">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M61">
+      <c r="N61">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="1"/>
         <v>3.7300000000000002E-3</v>
       </c>
-      <c r="N61" t="s">
-        <v>14</v>
-      </c>
-      <c r="O61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>800</v>
       </c>
@@ -3457,39 +3829,45 @@
         <v>0.3</v>
       </c>
       <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1.25</v>
+      </c>
+      <c r="H62">
         <v>1.125</v>
       </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" t="s">
-        <v>15</v>
-      </c>
       <c r="I62" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>5.4099999999999999E-3</v>
       </c>
-      <c r="L62">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M62">
+      <c r="N62">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="1"/>
         <v>3.5900000000000003E-3</v>
       </c>
-      <c r="N62" t="s">
-        <v>14</v>
-      </c>
-      <c r="O62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>800</v>
       </c>
@@ -3506,39 +3884,45 @@
         <v>0.3</v>
       </c>
       <c r="F63">
+        <v>1.25</v>
+      </c>
+      <c r="G63">
+        <v>1.5</v>
+      </c>
+      <c r="H63">
         <v>1.375</v>
       </c>
-      <c r="G63" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" t="s">
-        <v>15</v>
-      </c>
       <c r="I63" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63">
         <v>1.55E-2</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>3.4199999999999999E-3</v>
       </c>
-      <c r="L63">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M63">
+      <c r="N63">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="1"/>
         <v>1.5500000000000002E-3</v>
       </c>
-      <c r="N63" t="s">
-        <v>14</v>
-      </c>
-      <c r="O63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>800</v>
       </c>
@@ -3555,39 +3939,45 @@
         <v>0.3</v>
       </c>
       <c r="F64">
+        <v>1.5</v>
+      </c>
+      <c r="G64">
+        <v>1.75</v>
+      </c>
+      <c r="H64">
         <v>1.625</v>
       </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" t="s">
-        <v>15</v>
-      </c>
       <c r="I64" t="s">
-        <v>16</v>
-      </c>
-      <c r="J64">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64">
         <v>1.11E-2</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L64">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M64">
+      <c r="N64">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O64">
         <f t="shared" si="1"/>
         <v>1.1100000000000001E-3</v>
       </c>
-      <c r="N64" t="s">
-        <v>14</v>
-      </c>
-      <c r="O64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>800</v>
       </c>
@@ -3604,39 +3994,45 @@
         <v>0.3</v>
       </c>
       <c r="F65">
+        <v>1.75</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
         <v>1.875</v>
       </c>
-      <c r="G65" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" t="s">
-        <v>15</v>
-      </c>
       <c r="I65" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65">
         <v>9.4500000000000001E-3</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="L65">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M65">
+      <c r="N65">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O65">
         <f t="shared" si="1"/>
         <v>9.4500000000000009E-4</v>
       </c>
-      <c r="N65" t="s">
-        <v>14</v>
-      </c>
-      <c r="O65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>800</v>
       </c>
@@ -3653,39 +4049,45 @@
         <v>0.3</v>
       </c>
       <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>2.25</v>
+      </c>
+      <c r="H66">
         <v>2.125</v>
       </c>
-      <c r="G66" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" t="s">
-        <v>15</v>
-      </c>
       <c r="I66" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66">
         <v>5.0600000000000003E-3</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>1.58E-3</v>
       </c>
-      <c r="L66">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M66">
+      <c r="N66">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O66">
         <f t="shared" si="1"/>
         <v>5.0600000000000005E-4</v>
       </c>
-      <c r="N66" t="s">
-        <v>14</v>
-      </c>
-      <c r="O66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>800</v>
       </c>
@@ -3702,39 +4104,45 @@
         <v>0.3</v>
       </c>
       <c r="F67">
+        <v>2.25</v>
+      </c>
+      <c r="G67">
+        <v>2.5</v>
+      </c>
+      <c r="H67">
         <v>2.375</v>
       </c>
-      <c r="G67" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" t="s">
-        <v>15</v>
-      </c>
       <c r="I67" t="s">
-        <v>16</v>
-      </c>
-      <c r="J67">
+        <v>14</v>
+      </c>
+      <c r="J67" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67">
         <v>1.72E-3</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>8.2100000000000001E-4</v>
       </c>
-      <c r="L67">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <f t="shared" ref="M67:M92" si="2">0.1*J67</f>
+      <c r="N67">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O92" si="2">0.1*L67</f>
         <v>1.7200000000000001E-4</v>
       </c>
-      <c r="N67" t="s">
-        <v>14</v>
-      </c>
-      <c r="O67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>800</v>
       </c>
@@ -3751,39 +4159,45 @@
         <v>0.3</v>
       </c>
       <c r="F68">
+        <v>2.5</v>
+      </c>
+      <c r="G68">
+        <v>2.75</v>
+      </c>
+      <c r="H68">
         <v>2.625</v>
       </c>
-      <c r="G68" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" t="s">
-        <v>15</v>
-      </c>
       <c r="I68" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68">
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68">
         <v>1.4499999999999999E-3</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>8.7600000000000004E-4</v>
       </c>
-      <c r="L68">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M68">
+      <c r="N68">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O68">
         <f t="shared" si="2"/>
         <v>1.45E-4</v>
       </c>
-      <c r="N68" t="s">
-        <v>14</v>
-      </c>
-      <c r="O68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>800</v>
       </c>
@@ -3800,39 +4214,45 @@
         <v>0.3</v>
       </c>
       <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.25</v>
+      </c>
+      <c r="H69">
         <v>0.125</v>
       </c>
-      <c r="G69" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" t="s">
-        <v>15</v>
-      </c>
       <c r="I69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69">
+        <v>14</v>
+      </c>
+      <c r="J69" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69">
         <v>2.92E-2</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="L69">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M69">
+      <c r="N69">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="2"/>
         <v>2.9200000000000003E-3</v>
       </c>
-      <c r="N69" t="s">
-        <v>14</v>
-      </c>
-      <c r="O69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>800</v>
       </c>
@@ -3849,39 +4269,45 @@
         <v>0.3</v>
       </c>
       <c r="F70">
+        <v>0.25</v>
+      </c>
+      <c r="G70">
+        <v>0.5</v>
+      </c>
+      <c r="H70">
         <v>0.375</v>
       </c>
-      <c r="G70" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" t="s">
-        <v>15</v>
-      </c>
       <c r="I70" t="s">
-        <v>16</v>
-      </c>
-      <c r="J70">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70">
         <v>1.84E-2</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>6.8300000000000001E-3</v>
       </c>
-      <c r="L70">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M70">
+      <c r="N70">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="2"/>
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="N70" t="s">
-        <v>14</v>
-      </c>
-      <c r="O70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>800</v>
       </c>
@@ -3898,39 +4324,45 @@
         <v>0.3</v>
       </c>
       <c r="F71">
+        <v>0.5</v>
+      </c>
+      <c r="G71">
+        <v>0.75</v>
+      </c>
+      <c r="H71">
         <v>0.625</v>
       </c>
-      <c r="G71" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" t="s">
-        <v>15</v>
-      </c>
       <c r="I71" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>7.77E-3</v>
       </c>
-      <c r="L71">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M71">
+      <c r="N71">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="2"/>
         <v>2.9100000000000003E-3</v>
       </c>
-      <c r="N71" t="s">
-        <v>14</v>
-      </c>
-      <c r="O71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>800</v>
       </c>
@@ -3947,39 +4379,45 @@
         <v>0.3</v>
       </c>
       <c r="F72">
+        <v>0.75</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
         <v>0.875</v>
       </c>
-      <c r="G72" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" t="s">
-        <v>15</v>
-      </c>
       <c r="I72" t="s">
-        <v>16</v>
-      </c>
-      <c r="J72">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>6.0299999999999998E-3</v>
       </c>
-      <c r="L72">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M72">
+      <c r="N72">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="2"/>
         <v>2.7200000000000002E-3</v>
       </c>
-      <c r="N72" t="s">
-        <v>14</v>
-      </c>
-      <c r="O72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>800</v>
       </c>
@@ -3996,39 +4434,45 @@
         <v>0.3</v>
       </c>
       <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1.25</v>
+      </c>
+      <c r="H73">
         <v>1.125</v>
       </c>
-      <c r="G73" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" t="s">
-        <v>15</v>
-      </c>
       <c r="I73" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73">
+        <v>14</v>
+      </c>
+      <c r="J73" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>4.5599999999999998E-3</v>
       </c>
-      <c r="L73">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M73">
+      <c r="N73">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="2"/>
         <v>2.0899999999999998E-3</v>
       </c>
-      <c r="N73" t="s">
-        <v>14</v>
-      </c>
-      <c r="O73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>800</v>
       </c>
@@ -4045,39 +4489,45 @@
         <v>0.3</v>
       </c>
       <c r="F74">
+        <v>1.25</v>
+      </c>
+      <c r="G74">
+        <v>1.5</v>
+      </c>
+      <c r="H74">
         <v>1.375</v>
       </c>
-      <c r="G74" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" t="s">
-        <v>15</v>
-      </c>
       <c r="I74" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74">
+        <v>14</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74">
         <v>7.26E-3</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>2.0799999999999998E-3</v>
       </c>
-      <c r="L74">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M74">
+      <c r="N74">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="2"/>
         <v>7.2600000000000008E-4</v>
       </c>
-      <c r="N74" t="s">
-        <v>14</v>
-      </c>
-      <c r="O74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>800</v>
       </c>
@@ -4094,39 +4544,45 @@
         <v>0.3</v>
       </c>
       <c r="F75">
+        <v>1.5</v>
+      </c>
+      <c r="G75">
+        <v>1.75</v>
+      </c>
+      <c r="H75">
         <v>1.625</v>
       </c>
-      <c r="G75" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" t="s">
-        <v>15</v>
-      </c>
       <c r="I75" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75">
+        <v>14</v>
+      </c>
+      <c r="J75" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>2.5500000000000002E-3</v>
       </c>
-      <c r="L75">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M75">
+      <c r="N75">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="2"/>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="N75" t="s">
-        <v>14</v>
-      </c>
-      <c r="O75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>800</v>
       </c>
@@ -4143,39 +4599,45 @@
         <v>0.3</v>
       </c>
       <c r="F76">
+        <v>1.75</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
         <v>1.875</v>
       </c>
-      <c r="G76" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" t="s">
-        <v>15</v>
-      </c>
       <c r="I76" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76">
+        <v>14</v>
+      </c>
+      <c r="J76" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>8.8000000000000003E-4</v>
       </c>
-      <c r="L76">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M76">
+      <c r="N76">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="2"/>
         <v>1.8699999999999999E-4</v>
       </c>
-      <c r="N76" t="s">
-        <v>14</v>
-      </c>
-      <c r="O76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>800</v>
       </c>
@@ -4192,39 +4654,45 @@
         <v>0.3</v>
       </c>
       <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>2.25</v>
+      </c>
+      <c r="H77">
         <v>2.125</v>
       </c>
-      <c r="G77" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" t="s">
-        <v>15</v>
-      </c>
       <c r="I77" t="s">
-        <v>16</v>
-      </c>
-      <c r="J77">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77">
         <v>2.0899999999999998E-3</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>1.47E-3</v>
       </c>
-      <c r="L77">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M77">
+      <c r="N77">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="2"/>
         <v>2.0899999999999998E-4</v>
       </c>
-      <c r="N77" t="s">
-        <v>14</v>
-      </c>
-      <c r="O77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>800</v>
       </c>
@@ -4241,39 +4709,45 @@
         <v>0.3</v>
       </c>
       <c r="F78">
+        <v>2.25</v>
+      </c>
+      <c r="G78">
+        <v>2.5</v>
+      </c>
+      <c r="H78">
         <v>2.375</v>
       </c>
-      <c r="G78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" t="s">
-        <v>15</v>
-      </c>
       <c r="I78" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78">
+        <v>14</v>
+      </c>
+      <c r="J78" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78">
         <v>1.81E-3</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>1.2700000000000001E-3</v>
       </c>
-      <c r="L78">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M78">
+      <c r="N78">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="2"/>
         <v>1.8100000000000001E-4</v>
       </c>
-      <c r="N78" t="s">
-        <v>14</v>
-      </c>
-      <c r="O78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>800</v>
       </c>
@@ -4290,39 +4764,45 @@
         <v>0.3</v>
       </c>
       <c r="F79">
+        <v>2.5</v>
+      </c>
+      <c r="G79">
+        <v>2.75</v>
+      </c>
+      <c r="H79">
         <v>2.625</v>
       </c>
-      <c r="G79" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" t="s">
-        <v>15</v>
-      </c>
       <c r="I79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79">
+        <v>14</v>
+      </c>
+      <c r="J79" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79">
         <v>2.5899999999999999E-3</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>2.0500000000000002E-3</v>
       </c>
-      <c r="L79">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M79">
+      <c r="N79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O79">
         <f t="shared" si="2"/>
         <v>2.5900000000000001E-4</v>
       </c>
-      <c r="N79" t="s">
-        <v>14</v>
-      </c>
-      <c r="O79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>800</v>
       </c>
@@ -4339,39 +4819,45 @@
         <v>0.3</v>
       </c>
       <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0.25</v>
+      </c>
+      <c r="H80">
         <v>0.125</v>
       </c>
-      <c r="G80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" t="s">
-        <v>15</v>
-      </c>
       <c r="I80" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>1.78E-2</v>
       </c>
-      <c r="L80">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M80">
+      <c r="N80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O80">
         <f t="shared" si="2"/>
         <v>2.2800000000000003E-3</v>
       </c>
-      <c r="N80" t="s">
-        <v>14</v>
-      </c>
-      <c r="O80" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>800</v>
       </c>
@@ -4388,39 +4874,45 @@
         <v>0.3</v>
       </c>
       <c r="F81">
+        <v>0.25</v>
+      </c>
+      <c r="G81">
+        <v>0.5</v>
+      </c>
+      <c r="H81">
         <v>0.375</v>
       </c>
-      <c r="G81" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" t="s">
-        <v>15</v>
-      </c>
       <c r="I81" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81">
         <v>6.6899999999999998E-3</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>3.6800000000000001E-3</v>
       </c>
-      <c r="L81">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M81">
+      <c r="N81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O81">
         <f t="shared" si="2"/>
         <v>6.69E-4</v>
       </c>
-      <c r="N81" t="s">
-        <v>14</v>
-      </c>
-      <c r="O81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>800</v>
       </c>
@@ -4437,39 +4929,45 @@
         <v>0.3</v>
       </c>
       <c r="F82">
+        <v>0.5</v>
+      </c>
+      <c r="G82">
+        <v>0.75</v>
+      </c>
+      <c r="H82">
         <v>0.625</v>
       </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" t="s">
-        <v>15</v>
-      </c>
       <c r="I82" t="s">
-        <v>16</v>
-      </c>
-      <c r="J82">
+        <v>14</v>
+      </c>
+      <c r="J82" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82">
         <v>4.4900000000000001E-3</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="L82">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M82">
+      <c r="N82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O82">
         <f t="shared" si="2"/>
         <v>4.4900000000000002E-4</v>
       </c>
-      <c r="N82" t="s">
-        <v>14</v>
-      </c>
-      <c r="O82" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>800</v>
       </c>
@@ -4486,39 +4984,45 @@
         <v>0.3</v>
       </c>
       <c r="F83">
+        <v>0.75</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
         <v>0.875</v>
       </c>
-      <c r="G83" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83" t="s">
-        <v>15</v>
-      </c>
       <c r="I83" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83">
         <v>9.9100000000000004E-3</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>4.3400000000000001E-3</v>
       </c>
-      <c r="L83">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M83">
+      <c r="N83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O83">
         <f t="shared" si="2"/>
         <v>9.9100000000000013E-4</v>
       </c>
-      <c r="N83" t="s">
-        <v>14</v>
-      </c>
-      <c r="O83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>800</v>
       </c>
@@ -4535,39 +5039,45 @@
         <v>0.3</v>
       </c>
       <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1.25</v>
+      </c>
+      <c r="H84">
         <v>1.125</v>
       </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" t="s">
-        <v>15</v>
-      </c>
       <c r="I84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J84">
+        <v>14</v>
+      </c>
+      <c r="J84" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84">
         <v>6.5599999999999999E-3</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>3.3500000000000001E-3</v>
       </c>
-      <c r="L84">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M84">
+      <c r="N84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O84">
         <f t="shared" si="2"/>
         <v>6.5600000000000001E-4</v>
       </c>
-      <c r="N84" t="s">
-        <v>14</v>
-      </c>
-      <c r="O84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>800</v>
       </c>
@@ -4584,39 +5094,45 @@
         <v>0.3</v>
       </c>
       <c r="F85">
+        <v>1.25</v>
+      </c>
+      <c r="G85">
+        <v>1.5</v>
+      </c>
+      <c r="H85">
         <v>1.375</v>
       </c>
-      <c r="G85" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" t="s">
-        <v>15</v>
-      </c>
       <c r="I85" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="L85">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M85">
+      <c r="N85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O85">
         <f t="shared" si="2"/>
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="N85" t="s">
-        <v>14</v>
-      </c>
-      <c r="O85" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>800</v>
       </c>
@@ -4633,39 +5149,45 @@
         <v>0.3</v>
       </c>
       <c r="F86">
+        <v>1.5</v>
+      </c>
+      <c r="G86">
+        <v>1.75</v>
+      </c>
+      <c r="H86">
         <v>1.625</v>
       </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" t="s">
-        <v>15</v>
-      </c>
       <c r="I86" t="s">
-        <v>16</v>
-      </c>
-      <c r="J86">
+        <v>14</v>
+      </c>
+      <c r="J86" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86">
         <v>9.3099999999999997E-4</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>6.2299999999999996E-4</v>
       </c>
-      <c r="L86">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M86">
+      <c r="N86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O86">
         <f t="shared" si="2"/>
         <v>9.31E-5</v>
       </c>
-      <c r="N86" t="s">
-        <v>14</v>
-      </c>
-      <c r="O86" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>800</v>
       </c>
@@ -4682,39 +5204,45 @@
         <v>0.3</v>
       </c>
       <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0.25</v>
+      </c>
+      <c r="H87">
         <v>0.125</v>
       </c>
-      <c r="G87" t="s">
-        <v>18</v>
-      </c>
-      <c r="H87" t="s">
-        <v>15</v>
-      </c>
       <c r="I87" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>2.07E-2</v>
       </c>
-      <c r="L87">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M87">
+      <c r="N87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O87">
         <f t="shared" si="2"/>
         <v>1.5300000000000001E-3</v>
       </c>
-      <c r="N87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O87" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>800</v>
       </c>
@@ -4731,39 +5259,45 @@
         <v>0.3</v>
       </c>
       <c r="F88">
+        <v>0.25</v>
+      </c>
+      <c r="G88">
+        <v>0.5</v>
+      </c>
+      <c r="H88">
         <v>0.375</v>
       </c>
-      <c r="G88" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" t="s">
-        <v>15</v>
-      </c>
       <c r="I88" t="s">
-        <v>16</v>
-      </c>
-      <c r="J88">
+        <v>14</v>
+      </c>
+      <c r="J88" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88">
         <v>7.9299999999999995E-3</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>5.0899999999999999E-3</v>
       </c>
-      <c r="L88">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M88">
+      <c r="N88">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O88">
         <f t="shared" si="2"/>
         <v>7.9299999999999998E-4</v>
       </c>
-      <c r="N88" t="s">
-        <v>14</v>
-      </c>
-      <c r="O88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>800</v>
       </c>
@@ -4780,39 +5314,45 @@
         <v>0.3</v>
       </c>
       <c r="F89">
+        <v>0.75</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
         <v>0.875</v>
       </c>
-      <c r="G89" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" t="s">
-        <v>15</v>
-      </c>
       <c r="I89" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89">
         <v>7.5599999999999999E-3</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>3.8800000000000002E-3</v>
       </c>
-      <c r="L89">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M89">
+      <c r="N89">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O89">
         <f t="shared" si="2"/>
         <v>7.5600000000000005E-4</v>
       </c>
-      <c r="N89" t="s">
-        <v>14</v>
-      </c>
-      <c r="O89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P89" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>800</v>
       </c>
@@ -4829,39 +5369,45 @@
         <v>0.3</v>
       </c>
       <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1.25</v>
+      </c>
+      <c r="H90">
         <v>1.125</v>
       </c>
-      <c r="G90" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" t="s">
-        <v>15</v>
-      </c>
       <c r="I90" t="s">
-        <v>16</v>
-      </c>
-      <c r="J90">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90">
         <v>2.9199999999999999E-3</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>1.72E-3</v>
       </c>
-      <c r="L90">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M90">
+      <c r="N90">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O90">
         <f t="shared" si="2"/>
         <v>2.92E-4</v>
       </c>
-      <c r="N90" t="s">
-        <v>14</v>
-      </c>
-      <c r="O90" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>800</v>
       </c>
@@ -4878,39 +5424,45 @@
         <v>0.3</v>
       </c>
       <c r="F91">
+        <v>1.25</v>
+      </c>
+      <c r="G91">
+        <v>1.5</v>
+      </c>
+      <c r="H91">
         <v>1.375</v>
       </c>
-      <c r="G91" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" t="s">
-        <v>15</v>
-      </c>
       <c r="I91" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91">
         <v>6.9800000000000001E-3</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="L91">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M91">
+      <c r="N91">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O91">
         <f t="shared" si="2"/>
         <v>6.9800000000000005E-4</v>
       </c>
-      <c r="N91" t="s">
-        <v>14</v>
-      </c>
-      <c r="O91" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P91" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>800</v>
       </c>
@@ -4927,36 +5479,42 @@
         <v>0.3</v>
       </c>
       <c r="F92">
+        <v>1.5</v>
+      </c>
+      <c r="G92">
+        <v>1.75</v>
+      </c>
+      <c r="H92">
         <v>1.625</v>
       </c>
-      <c r="G92" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" t="s">
-        <v>15</v>
-      </c>
       <c r="I92" t="s">
-        <v>16</v>
-      </c>
-      <c r="J92">
+        <v>14</v>
+      </c>
+      <c r="J92" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" t="s">
+        <v>12</v>
+      </c>
+      <c r="L92">
         <v>2.7299999999999998E-3</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>1.83E-3</v>
       </c>
-      <c r="L92">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M92">
+      <c r="N92">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O92">
         <f t="shared" si="2"/>
         <v>2.7299999999999997E-4</v>
       </c>
-      <c r="N92" t="s">
-        <v>14</v>
-      </c>
-      <c r="O92" t="s">
-        <v>17</v>
+      <c r="P92" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/proton_qT/expdata/10772.xlsx
+++ b/proton_qT/expdata/10772.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A6CFA5-F653-0747-9C56-DA450443637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2503608D-C489-2048-A857-C1EA8DADDADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="3880" windowWidth="28040" windowHeight="17440" xr2:uid="{E748A6B3-C705-8646-AAB9-41680F0509DB}"/>
+    <workbookView xWindow="4680" yWindow="3700" windowWidth="28040" windowHeight="17440" xr2:uid="{E748A6B3-C705-8646-AAB9-41680F0509DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -66,9 +74,6 @@
     <t>pb/GeV**2</t>
   </si>
   <si>
-    <t>pp</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
@@ -91,6 +96,9 @@
   </si>
   <si>
     <t>pTmax</t>
+  </si>
+  <si>
+    <t>pD</t>
   </si>
 </sst>
 </file>
@@ -450,9 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77567996-9DB4-934B-A762-085C14C79E9B}">
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -464,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -500,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
         <v>7</v>
@@ -538,7 +544,7 @@
         <v>0.125</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -564,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -593,7 +599,7 @@
         <v>0.375</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -619,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -648,7 +654,7 @@
         <v>0.625</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -674,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="Q4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -703,7 +709,7 @@
         <v>0.875</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -729,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -758,7 +764,7 @@
         <v>1.125</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -784,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="Q6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -813,7 +819,7 @@
         <v>1.375</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -839,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="Q7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -868,7 +874,7 @@
         <v>1.625</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -894,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="Q8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -923,7 +929,7 @@
         <v>1.875</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -949,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="Q9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -978,7 +984,7 @@
         <v>2.125</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -1004,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="Q10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -1033,7 +1039,7 @@
         <v>2.375</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -1059,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="Q11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1088,7 +1094,7 @@
         <v>2.625</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -1114,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="Q12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1143,7 +1149,7 @@
         <v>2.875</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -1169,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="Q13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1198,7 +1204,7 @@
         <v>0.125</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -1224,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="Q14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1253,7 +1259,7 @@
         <v>0.375</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -1279,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="Q15" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1308,7 +1314,7 @@
         <v>0.625</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -1334,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="Q16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -1363,7 +1369,7 @@
         <v>0.875</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -1389,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="Q17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -1418,7 +1424,7 @@
         <v>1.125</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -1444,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="Q18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -1473,7 +1479,7 @@
         <v>1.375</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1499,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="Q19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -1528,7 +1534,7 @@
         <v>1.625</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1554,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="Q20" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -1583,7 +1589,7 @@
         <v>1.875</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1609,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="Q21" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -1638,7 +1644,7 @@
         <v>2.125</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1664,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="Q22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -1693,7 +1699,7 @@
         <v>2.375</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1719,7 +1725,7 @@
         <v>10</v>
       </c>
       <c r="Q23" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -1748,7 +1754,7 @@
         <v>2.625</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1774,7 +1780,7 @@
         <v>10</v>
       </c>
       <c r="Q24" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -1803,7 +1809,7 @@
         <v>2.875</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1829,7 +1835,7 @@
         <v>10</v>
       </c>
       <c r="Q25" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -1858,7 +1864,7 @@
         <v>3.125</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1884,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="Q26" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -1913,7 +1919,7 @@
         <v>3.375</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1939,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="Q27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -1968,7 +1974,7 @@
         <v>3.625</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1994,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="Q28" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -2023,7 +2029,7 @@
         <v>3.875</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -2049,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="Q29" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -2078,7 +2084,7 @@
         <v>0.125</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -2104,7 +2110,7 @@
         <v>10</v>
       </c>
       <c r="Q30" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -2133,7 +2139,7 @@
         <v>0.375</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -2159,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="Q31" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -2188,7 +2194,7 @@
         <v>0.625</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -2214,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="Q32" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -2243,7 +2249,7 @@
         <v>0.875</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -2269,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="Q33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -2298,7 +2304,7 @@
         <v>1.125</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -2324,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="Q34" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -2353,7 +2359,7 @@
         <v>1.375</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -2379,7 +2385,7 @@
         <v>10</v>
       </c>
       <c r="Q35" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -2408,7 +2414,7 @@
         <v>1.625</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -2434,7 +2440,7 @@
         <v>10</v>
       </c>
       <c r="Q36" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -2463,7 +2469,7 @@
         <v>1.875</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -2489,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="Q37" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -2518,7 +2524,7 @@
         <v>2.125</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -2544,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="Q38" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -2573,7 +2579,7 @@
         <v>2.375</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -2599,7 +2605,7 @@
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -2628,7 +2634,7 @@
         <v>2.625</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -2654,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="Q40" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -2683,7 +2689,7 @@
         <v>2.875</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -2709,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="Q41" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -2738,7 +2744,7 @@
         <v>3.125</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -2764,7 +2770,7 @@
         <v>10</v>
       </c>
       <c r="Q42" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -2793,7 +2799,7 @@
         <v>3.375</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -2819,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="Q43" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -2848,7 +2854,7 @@
         <v>0.125</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -2874,7 +2880,7 @@
         <v>10</v>
       </c>
       <c r="Q44" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -2903,7 +2909,7 @@
         <v>0.375</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -2929,7 +2935,7 @@
         <v>10</v>
       </c>
       <c r="Q45" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -2958,7 +2964,7 @@
         <v>0.625</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -2984,7 +2990,7 @@
         <v>10</v>
       </c>
       <c r="Q46" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -3013,7 +3019,7 @@
         <v>0.875</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -3039,7 +3045,7 @@
         <v>10</v>
       </c>
       <c r="Q47" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -3068,7 +3074,7 @@
         <v>1.125</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -3094,7 +3100,7 @@
         <v>10</v>
       </c>
       <c r="Q48" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -3123,7 +3129,7 @@
         <v>1.375</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -3149,7 +3155,7 @@
         <v>10</v>
       </c>
       <c r="Q49" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -3178,7 +3184,7 @@
         <v>1.625</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
         <v>11</v>
@@ -3204,7 +3210,7 @@
         <v>10</v>
       </c>
       <c r="Q50" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -3233,7 +3239,7 @@
         <v>1.875</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
         <v>11</v>
@@ -3259,7 +3265,7 @@
         <v>10</v>
       </c>
       <c r="Q51" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -3288,7 +3294,7 @@
         <v>2.125</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
         <v>11</v>
@@ -3314,7 +3320,7 @@
         <v>10</v>
       </c>
       <c r="Q52" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -3343,7 +3349,7 @@
         <v>2.375</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
         <v>11</v>
@@ -3369,7 +3375,7 @@
         <v>10</v>
       </c>
       <c r="Q53" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -3398,7 +3404,7 @@
         <v>2.625</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J54" t="s">
         <v>11</v>
@@ -3424,7 +3430,7 @@
         <v>10</v>
       </c>
       <c r="Q54" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -3453,7 +3459,7 @@
         <v>2.875</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J55" t="s">
         <v>11</v>
@@ -3479,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="Q55" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -3508,7 +3514,7 @@
         <v>3.125</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J56" t="s">
         <v>11</v>
@@ -3534,7 +3540,7 @@
         <v>10</v>
       </c>
       <c r="Q56" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -3563,7 +3569,7 @@
         <v>3.375</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J57" t="s">
         <v>11</v>
@@ -3589,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="Q57" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -3618,7 +3624,7 @@
         <v>0.125</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
         <v>11</v>
@@ -3644,7 +3650,7 @@
         <v>10</v>
       </c>
       <c r="Q58" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -3673,7 +3679,7 @@
         <v>0.375</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J59" t="s">
         <v>11</v>
@@ -3699,7 +3705,7 @@
         <v>10</v>
       </c>
       <c r="Q59" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -3728,7 +3734,7 @@
         <v>0.625</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J60" t="s">
         <v>11</v>
@@ -3754,7 +3760,7 @@
         <v>10</v>
       </c>
       <c r="Q60" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -3783,7 +3789,7 @@
         <v>0.875</v>
       </c>
       <c r="I61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J61" t="s">
         <v>11</v>
@@ -3809,7 +3815,7 @@
         <v>10</v>
       </c>
       <c r="Q61" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -3838,7 +3844,7 @@
         <v>1.125</v>
       </c>
       <c r="I62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J62" t="s">
         <v>11</v>
@@ -3864,7 +3870,7 @@
         <v>10</v>
       </c>
       <c r="Q62" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -3893,7 +3899,7 @@
         <v>1.375</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J63" t="s">
         <v>11</v>
@@ -3919,7 +3925,7 @@
         <v>10</v>
       </c>
       <c r="Q63" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -3948,7 +3954,7 @@
         <v>1.625</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
         <v>11</v>
@@ -3974,7 +3980,7 @@
         <v>10</v>
       </c>
       <c r="Q64" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -4003,7 +4009,7 @@
         <v>1.875</v>
       </c>
       <c r="I65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
         <v>11</v>
@@ -4029,7 +4035,7 @@
         <v>10</v>
       </c>
       <c r="Q65" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -4058,7 +4064,7 @@
         <v>2.125</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
         <v>11</v>
@@ -4084,7 +4090,7 @@
         <v>10</v>
       </c>
       <c r="Q66" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -4113,7 +4119,7 @@
         <v>2.375</v>
       </c>
       <c r="I67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J67" t="s">
         <v>11</v>
@@ -4139,7 +4145,7 @@
         <v>10</v>
       </c>
       <c r="Q67" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -4168,7 +4174,7 @@
         <v>2.625</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J68" t="s">
         <v>11</v>
@@ -4194,7 +4200,7 @@
         <v>10</v>
       </c>
       <c r="Q68" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -4223,7 +4229,7 @@
         <v>0.125</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J69" t="s">
         <v>11</v>
@@ -4249,7 +4255,7 @@
         <v>10</v>
       </c>
       <c r="Q69" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -4278,7 +4284,7 @@
         <v>0.375</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J70" t="s">
         <v>11</v>
@@ -4304,7 +4310,7 @@
         <v>10</v>
       </c>
       <c r="Q70" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -4333,7 +4339,7 @@
         <v>0.625</v>
       </c>
       <c r="I71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J71" t="s">
         <v>11</v>
@@ -4359,7 +4365,7 @@
         <v>10</v>
       </c>
       <c r="Q71" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -4388,7 +4394,7 @@
         <v>0.875</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J72" t="s">
         <v>11</v>
@@ -4414,7 +4420,7 @@
         <v>10</v>
       </c>
       <c r="Q72" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -4443,7 +4449,7 @@
         <v>1.125</v>
       </c>
       <c r="I73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J73" t="s">
         <v>11</v>
@@ -4469,7 +4475,7 @@
         <v>10</v>
       </c>
       <c r="Q73" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -4498,7 +4504,7 @@
         <v>1.375</v>
       </c>
       <c r="I74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J74" t="s">
         <v>11</v>
@@ -4524,7 +4530,7 @@
         <v>10</v>
       </c>
       <c r="Q74" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -4553,7 +4559,7 @@
         <v>1.625</v>
       </c>
       <c r="I75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
         <v>11</v>
@@ -4579,7 +4585,7 @@
         <v>10</v>
       </c>
       <c r="Q75" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -4608,7 +4614,7 @@
         <v>1.875</v>
       </c>
       <c r="I76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J76" t="s">
         <v>11</v>
@@ -4634,7 +4640,7 @@
         <v>10</v>
       </c>
       <c r="Q76" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -4663,7 +4669,7 @@
         <v>2.125</v>
       </c>
       <c r="I77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J77" t="s">
         <v>11</v>
@@ -4689,7 +4695,7 @@
         <v>10</v>
       </c>
       <c r="Q77" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -4718,7 +4724,7 @@
         <v>2.375</v>
       </c>
       <c r="I78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
         <v>11</v>
@@ -4744,7 +4750,7 @@
         <v>10</v>
       </c>
       <c r="Q78" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -4773,7 +4779,7 @@
         <v>2.625</v>
       </c>
       <c r="I79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
         <v>11</v>
@@ -4799,7 +4805,7 @@
         <v>10</v>
       </c>
       <c r="Q79" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -4828,7 +4834,7 @@
         <v>0.125</v>
       </c>
       <c r="I80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J80" t="s">
         <v>11</v>
@@ -4854,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="Q80" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -4883,7 +4889,7 @@
         <v>0.375</v>
       </c>
       <c r="I81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J81" t="s">
         <v>11</v>
@@ -4909,7 +4915,7 @@
         <v>10</v>
       </c>
       <c r="Q81" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -4938,7 +4944,7 @@
         <v>0.625</v>
       </c>
       <c r="I82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J82" t="s">
         <v>11</v>
@@ -4964,7 +4970,7 @@
         <v>10</v>
       </c>
       <c r="Q82" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -4993,7 +4999,7 @@
         <v>0.875</v>
       </c>
       <c r="I83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J83" t="s">
         <v>11</v>
@@ -5019,7 +5025,7 @@
         <v>10</v>
       </c>
       <c r="Q83" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -5048,7 +5054,7 @@
         <v>1.125</v>
       </c>
       <c r="I84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J84" t="s">
         <v>11</v>
@@ -5074,7 +5080,7 @@
         <v>10</v>
       </c>
       <c r="Q84" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -5103,7 +5109,7 @@
         <v>1.375</v>
       </c>
       <c r="I85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J85" t="s">
         <v>11</v>
@@ -5129,7 +5135,7 @@
         <v>10</v>
       </c>
       <c r="Q85" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -5158,7 +5164,7 @@
         <v>1.625</v>
       </c>
       <c r="I86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J86" t="s">
         <v>11</v>
@@ -5184,7 +5190,7 @@
         <v>10</v>
       </c>
       <c r="Q86" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -5213,7 +5219,7 @@
         <v>0.125</v>
       </c>
       <c r="I87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J87" t="s">
         <v>11</v>
@@ -5239,7 +5245,7 @@
         <v>10</v>
       </c>
       <c r="Q87" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -5268,7 +5274,7 @@
         <v>0.375</v>
       </c>
       <c r="I88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
         <v>11</v>
@@ -5294,7 +5300,7 @@
         <v>10</v>
       </c>
       <c r="Q88" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -5323,7 +5329,7 @@
         <v>0.875</v>
       </c>
       <c r="I89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J89" t="s">
         <v>11</v>
@@ -5349,7 +5355,7 @@
         <v>10</v>
       </c>
       <c r="Q89" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -5378,7 +5384,7 @@
         <v>1.125</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
         <v>11</v>
@@ -5404,7 +5410,7 @@
         <v>10</v>
       </c>
       <c r="Q90" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -5433,7 +5439,7 @@
         <v>1.375</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
         <v>11</v>
@@ -5459,7 +5465,7 @@
         <v>10</v>
       </c>
       <c r="Q91" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -5488,7 +5494,7 @@
         <v>1.625</v>
       </c>
       <c r="I92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J92" t="s">
         <v>11</v>
@@ -5514,7 +5520,7 @@
         <v>10</v>
       </c>
       <c r="Q92" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/proton_qT/expdata/10772.xlsx
+++ b/proton_qT/expdata/10772.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2503608D-C489-2048-A857-C1EA8DADDADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8158D13-61BE-644E-A682-E94234C0E898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="3700" windowWidth="28040" windowHeight="17440" xr2:uid="{E748A6B3-C705-8646-AAB9-41680F0509DB}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>H2</t>
   </si>
   <si>
-    <t>syst_c</t>
-  </si>
-  <si>
     <t>Qmin</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>pD</t>
+  </si>
+  <si>
+    <t>syst_u</t>
   </si>
 </sst>
 </file>
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
         <v>7</v>
@@ -570,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -680,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="Q4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -790,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -845,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -900,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="Q11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1120,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="Q12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1175,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="Q13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1230,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="Q14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1285,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="Q15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1340,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="Q16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="Q17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="Q18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -1505,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="Q19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="Q20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -1615,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="Q21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -1670,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="Q22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -1725,7 +1725,7 @@
         <v>10</v>
       </c>
       <c r="Q23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -1780,7 +1780,7 @@
         <v>10</v>
       </c>
       <c r="Q24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -1835,7 +1835,7 @@
         <v>10</v>
       </c>
       <c r="Q25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -1890,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="Q26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -1945,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="Q27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -2000,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="Q28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -2055,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="Q29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -2110,7 +2110,7 @@
         <v>10</v>
       </c>
       <c r="Q30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -2165,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="Q31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -2220,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="Q32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -2275,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="Q33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -2330,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="Q34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -2385,7 +2385,7 @@
         <v>10</v>
       </c>
       <c r="Q35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -2440,7 +2440,7 @@
         <v>10</v>
       </c>
       <c r="Q36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="Q37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -2550,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="Q38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -2605,7 +2605,7 @@
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -2660,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="Q40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -2715,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="Q41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -2770,7 +2770,7 @@
         <v>10</v>
       </c>
       <c r="Q42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -2825,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="Q43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -2880,7 +2880,7 @@
         <v>10</v>
       </c>
       <c r="Q44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -2935,7 +2935,7 @@
         <v>10</v>
       </c>
       <c r="Q45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -2990,7 +2990,7 @@
         <v>10</v>
       </c>
       <c r="Q46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -3045,7 +3045,7 @@
         <v>10</v>
       </c>
       <c r="Q47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -3100,7 +3100,7 @@
         <v>10</v>
       </c>
       <c r="Q48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -3155,7 +3155,7 @@
         <v>10</v>
       </c>
       <c r="Q49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -3210,7 +3210,7 @@
         <v>10</v>
       </c>
       <c r="Q50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -3265,7 +3265,7 @@
         <v>10</v>
       </c>
       <c r="Q51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -3320,7 +3320,7 @@
         <v>10</v>
       </c>
       <c r="Q52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -3375,7 +3375,7 @@
         <v>10</v>
       </c>
       <c r="Q53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -3430,7 +3430,7 @@
         <v>10</v>
       </c>
       <c r="Q54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -3485,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="Q55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -3540,7 +3540,7 @@
         <v>10</v>
       </c>
       <c r="Q56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -3595,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="Q57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -3650,7 +3650,7 @@
         <v>10</v>
       </c>
       <c r="Q58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -3705,7 +3705,7 @@
         <v>10</v>
       </c>
       <c r="Q59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -3760,7 +3760,7 @@
         <v>10</v>
       </c>
       <c r="Q60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -3815,7 +3815,7 @@
         <v>10</v>
       </c>
       <c r="Q61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -3870,7 +3870,7 @@
         <v>10</v>
       </c>
       <c r="Q62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -3925,7 +3925,7 @@
         <v>10</v>
       </c>
       <c r="Q63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -3980,7 +3980,7 @@
         <v>10</v>
       </c>
       <c r="Q64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -4035,7 +4035,7 @@
         <v>10</v>
       </c>
       <c r="Q65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -4090,7 +4090,7 @@
         <v>10</v>
       </c>
       <c r="Q66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -4145,7 +4145,7 @@
         <v>10</v>
       </c>
       <c r="Q67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -4200,7 +4200,7 @@
         <v>10</v>
       </c>
       <c r="Q68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -4255,7 +4255,7 @@
         <v>10</v>
       </c>
       <c r="Q69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -4310,7 +4310,7 @@
         <v>10</v>
       </c>
       <c r="Q70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -4365,7 +4365,7 @@
         <v>10</v>
       </c>
       <c r="Q71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -4420,7 +4420,7 @@
         <v>10</v>
       </c>
       <c r="Q72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -4475,7 +4475,7 @@
         <v>10</v>
       </c>
       <c r="Q73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -4530,7 +4530,7 @@
         <v>10</v>
       </c>
       <c r="Q74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -4585,7 +4585,7 @@
         <v>10</v>
       </c>
       <c r="Q75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -4640,7 +4640,7 @@
         <v>10</v>
       </c>
       <c r="Q76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -4695,7 +4695,7 @@
         <v>10</v>
       </c>
       <c r="Q77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -4750,7 +4750,7 @@
         <v>10</v>
       </c>
       <c r="Q78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -4805,7 +4805,7 @@
         <v>10</v>
       </c>
       <c r="Q79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -4860,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="Q80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -4915,7 +4915,7 @@
         <v>10</v>
       </c>
       <c r="Q81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -4970,7 +4970,7 @@
         <v>10</v>
       </c>
       <c r="Q82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -5025,7 +5025,7 @@
         <v>10</v>
       </c>
       <c r="Q83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -5080,7 +5080,7 @@
         <v>10</v>
       </c>
       <c r="Q84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -5135,7 +5135,7 @@
         <v>10</v>
       </c>
       <c r="Q85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -5190,7 +5190,7 @@
         <v>10</v>
       </c>
       <c r="Q86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -5245,7 +5245,7 @@
         <v>10</v>
       </c>
       <c r="Q87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -5300,7 +5300,7 @@
         <v>10</v>
       </c>
       <c r="Q88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -5355,7 +5355,7 @@
         <v>10</v>
       </c>
       <c r="Q89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -5410,7 +5410,7 @@
         <v>10</v>
       </c>
       <c r="Q90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -5465,7 +5465,7 @@
         <v>10</v>
       </c>
       <c r="Q91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -5520,7 +5520,7 @@
         <v>10</v>
       </c>
       <c r="Q92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/proton_qT/expdata/10772.xlsx
+++ b/proton_qT/expdata/10772.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8158D13-61BE-644E-A682-E94234C0E898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA541DE2-9523-C54E-BED9-D22438444E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="3700" windowWidth="28040" windowHeight="17440" xr2:uid="{E748A6B3-C705-8646-AAB9-41680F0509DB}"/>
   </bookViews>
@@ -3603,10 +3603,10 @@
         <v>800</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>0.1</v>
@@ -3658,10 +3658,10 @@
         <v>800</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59">
         <v>0.1</v>
@@ -3713,10 +3713,10 @@
         <v>800</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60">
         <v>0.1</v>
@@ -3768,10 +3768,10 @@
         <v>800</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61">
         <v>0.1</v>
@@ -3823,10 +3823,10 @@
         <v>800</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>0.1</v>
@@ -3878,10 +3878,10 @@
         <v>800</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C63">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>0.1</v>
@@ -3933,10 +3933,10 @@
         <v>800</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>0.1</v>
@@ -3988,10 +3988,10 @@
         <v>800</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>0.1</v>
@@ -4043,10 +4043,10 @@
         <v>800</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C66">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66">
         <v>0.1</v>
@@ -4098,10 +4098,10 @@
         <v>800</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>0.1</v>
@@ -4153,10 +4153,10 @@
         <v>800</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C68">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68">
         <v>0.1</v>
